--- a/Question/Languages/JavaScript/JavaScript _A.xlsx
+++ b/Question/Languages/JavaScript/JavaScript _A.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\Languages\JavaScript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8EBE03-2C1E-4318-AEB4-510EC95B9AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,43 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>What is the difference between ViewState and SessionState?</t>
+  </si>
+  <si>
+    <t>ViewState’ is specific to a page in a session. ‘SessionState’ is specific to user-specific data that can be accessed across all web application pages.</t>
+  </si>
+  <si>
+    <t>What is the difference between an alert box and a confirmation box?</t>
+  </si>
+  <si>
+    <t>An alert box displays only one button, which is the OK button. But a Confirmation box displays two buttons, namely OK and cancel.</t>
+  </si>
+  <si>
+    <t>LocalStorage is the same as SessionStorage but it persists the data even when the browser is closed and reopened(i.e it has no expiration time) whereas in sessionStorage data gets cleared when the page session ends.</t>
+  </si>
+  <si>
+    <t>What is the main difference between localStorage and sessionStorage?</t>
+  </si>
+  <si>
+    <t>What is the difference between native, host and user objects?</t>
+  </si>
+  <si>
+    <t>Native objects are objects that are part of the JavaScript language defined by the ECMAScript specification. For example, String, Math, RegExp, Object, Function etc core objects defined in the ECMAScript spec. Host objects are objects provided by the browser or runtime environment (Node). For example, window, XmlHttpRequest, DOM nodes etc are considered as host objects. User objects are objects defined in the javascript code. For example, User objects created for profile information.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +371,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>